--- a/output/TRUXT_26406465000130.xlsx
+++ b/output/TRUXT_26406465000130.xlsx
@@ -823,10 +823,10 @@
         <v>44165</v>
       </c>
       <c r="B40">
-        <v>0.1844030999999999</v>
+        <v>0.1892408999999999</v>
       </c>
       <c r="C40">
-        <v>-0.006914103493298795</v>
+        <v>-0.002857755658579264</v>
       </c>
     </row>
   </sheetData>

--- a/output/TRUXT_26406465000130.xlsx
+++ b/output/TRUXT_26406465000130.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TRUXT RED MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,447 +383,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43008</v>
       </c>
       <c r="B2">
-        <v>0.01044219999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43039</v>
       </c>
       <c r="B3">
-        <v>0.01247280000000006</v>
-      </c>
-      <c r="C3">
         <v>0.002009615196198355</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43069</v>
       </c>
       <c r="B4">
-        <v>0.01212119999999994</v>
-      </c>
-      <c r="C4">
         <v>-0.0003472685883513238</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43100</v>
       </c>
       <c r="B5">
-        <v>0.01992189999999994</v>
-      </c>
-      <c r="C5">
         <v>0.007707278535416417</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43131</v>
       </c>
       <c r="B6">
-        <v>0.04056750000000009</v>
-      </c>
-      <c r="C6">
         <v>0.02024233424147481</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43159</v>
       </c>
       <c r="B7">
-        <v>0.04315420000000003</v>
-      </c>
-      <c r="C7">
         <v>0.002485855074274346</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43190</v>
       </c>
       <c r="B8">
-        <v>0.04602069999999991</v>
-      </c>
-      <c r="C8">
         <v>0.002747915888178243</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43220</v>
       </c>
       <c r="B9">
-        <v>0.04719549999999995</v>
-      </c>
-      <c r="C9">
         <v>0.001123113529206465</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43251</v>
       </c>
       <c r="B10">
-        <v>0.06201509999999999</v>
-      </c>
-      <c r="C10">
         <v>0.01415170328749515</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43281</v>
       </c>
       <c r="B11">
-        <v>0.07577049999999996</v>
-      </c>
-      <c r="C11">
         <v>0.01295216988910974</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43312</v>
       </c>
       <c r="B12">
-        <v>0.07355350000000005</v>
-      </c>
-      <c r="C12">
         <v>-0.002060848480228694</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43343</v>
       </c>
       <c r="B13">
-        <v>0.08800520000000001</v>
-      </c>
-      <c r="C13">
         <v>0.01346155547907024</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43373</v>
       </c>
       <c r="B14">
-        <v>0.0869453</v>
-      </c>
-      <c r="C14">
         <v>-0.0009741681381669753</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43404</v>
       </c>
       <c r="B15">
-        <v>0.08907519999999991</v>
-      </c>
-      <c r="C15">
         <v>0.001959528230169427</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43434</v>
       </c>
       <c r="B16">
-        <v>0.08294730000000006</v>
-      </c>
-      <c r="C16">
         <v>-0.005626700525363071</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43465</v>
       </c>
       <c r="B17">
-        <v>0.0873276999999999</v>
-      </c>
-      <c r="C17">
         <v>0.004044887502835826</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43496</v>
       </c>
       <c r="B18">
-        <v>0.1132517</v>
-      </c>
-      <c r="C18">
         <v>0.0238419383595212</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43524</v>
       </c>
       <c r="B19">
-        <v>0.1056869</v>
-      </c>
-      <c r="C19">
         <v>-0.00679522878788319</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43555</v>
       </c>
       <c r="B20">
-        <v>0.1157589000000001</v>
-      </c>
-      <c r="C20">
         <v>0.00910926954095248</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43585</v>
       </c>
       <c r="B21">
-        <v>0.1178627000000001</v>
-      </c>
-      <c r="C21">
         <v>0.00188553279745296</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43616</v>
       </c>
       <c r="B22">
-        <v>0.1188667000000001</v>
-      </c>
-      <c r="C22">
         <v>0.0008981424999690013</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43646</v>
       </c>
       <c r="B23">
-        <v>0.1405582999999999</v>
-      </c>
-      <c r="C23">
         <v>0.01938711733935761</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43677</v>
       </c>
       <c r="B24">
-        <v>0.1502091999999999</v>
-      </c>
-      <c r="C24">
         <v>0.008461557817780907</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43708</v>
       </c>
       <c r="B25">
-        <v>0.1656956000000001</v>
-      </c>
-      <c r="C25">
         <v>0.01346398550802763</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43738</v>
       </c>
       <c r="B26">
-        <v>0.1668342</v>
-      </c>
-      <c r="C26">
         <v>0.0009767558529001352</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43769</v>
       </c>
       <c r="B27">
-        <v>0.1746042000000001</v>
-      </c>
-      <c r="C27">
         <v>0.006659043761315875</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43799</v>
       </c>
       <c r="B28">
-        <v>0.1472553999999999</v>
-      </c>
-      <c r="C28">
         <v>-0.02328341751204377</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43830</v>
       </c>
       <c r="B29">
-        <v>0.1662982</v>
-      </c>
-      <c r="C29">
         <v>0.01659857081518212</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43861</v>
       </c>
       <c r="B30">
-        <v>0.1507491999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.01333192488850621</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
       <c r="B31">
-        <v>0.1476065</v>
-      </c>
-      <c r="C31">
         <v>-0.002731003419337519</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
       <c r="B32">
-        <v>0.1563022999999999</v>
-      </c>
-      <c r="C32">
         <v>0.00757733595966914</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43951</v>
       </c>
       <c r="B33">
-        <v>0.1613947</v>
-      </c>
-      <c r="C33">
         <v>0.004404038632457974</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43982</v>
       </c>
       <c r="B34">
-        <v>0.1747753000000001</v>
-      </c>
-      <c r="C34">
         <v>0.01152114780616786</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44012</v>
       </c>
       <c r="B35">
-        <v>0.1709282999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.00327466878134075</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44043</v>
       </c>
       <c r="B36">
-        <v>0.1860514</v>
-      </c>
-      <c r="C36">
         <v>0.01291547911174407</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44074</v>
       </c>
       <c r="B37">
-        <v>0.2024793</v>
-      </c>
-      <c r="C37">
         <v>0.01385091742229716</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44104</v>
       </c>
       <c r="B38">
-        <v>0.1986049999999999</v>
-      </c>
-      <c r="C38">
         <v>-0.00322192656455722</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44135</v>
       </c>
       <c r="B39">
-        <v>0.1926492</v>
-      </c>
-      <c r="C39">
         <v>-0.004968943062977349</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44165</v>
       </c>
       <c r="B40">
-        <v>0.1892408999999999</v>
-      </c>
-      <c r="C40">
-        <v>-0.002857755658579264</v>
+        <v>-0.002857587964675501</v>
       </c>
     </row>
   </sheetData>
